--- a/test/org/hy/common/report/junit/versionCompare/JU_Report01.xlsx
+++ b/test/org/hy/common/report/junit/versionCompare/JU_Report01.xlsx
@@ -10,7 +10,7 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">工作表1!$A$1:$F$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">工作表1!$A$1:$F$21</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -168,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F22" authorId="0">
+    <comment ref="F20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -208,7 +208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>名称：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -301,10 +301,6 @@
   </si>
   <si>
     <t>合计：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小计：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -662,7 +658,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -673,64 +669,58 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -743,9 +733,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -899,13 +886,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1625600</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2108200</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>241300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1288,11 +1275,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20:B21"/>
+      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1302,50 +1289,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="35" customHeight="1">
-      <c r="A1" s="20"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="20" t="s">
+      <c r="A1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="21"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" ht="35" customHeight="1">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="23"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" ht="35" customHeight="1" thickBot="1">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="25"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1" thickBot="1">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="20" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="21"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="21"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1354,10 +1341,10 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="22"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="23"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1366,10 +1353,10 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="22"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="23"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1378,10 +1365,10 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="22"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="23"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="2" t="s">
         <v>2</v>
       </c>
@@ -1390,148 +1377,129 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="22"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="23"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6" ht="16" thickBot="1">
-      <c r="A10" s="22"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="23"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="22"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="22"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="22"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="22"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="22"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="22"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="22"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="22"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
     </row>
     <row r="19" spans="1:6" ht="16" thickBot="1">
-      <c r="A19" s="24"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="19"/>
-    </row>
-    <row r="20" spans="1:6" ht="16" thickBot="1">
-      <c r="A20" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="1:6" ht="16" thickBot="1">
-      <c r="A21" s="24"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="10"/>
-    </row>
-    <row r="22" spans="1:6" ht="22" customHeight="1" thickBot="1">
-      <c r="A22" s="20" t="s">
+      <c r="A19" s="22"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20" spans="1:6" ht="22" customHeight="1" thickBot="1">
+      <c r="A20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="12" t="s">
+      <c r="B20" s="24"/>
+      <c r="C20" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="32"/>
-    </row>
-    <row r="23" spans="1:6" ht="22" customHeight="1" thickBot="1">
-      <c r="A23" s="24"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="12" t="s">
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="30"/>
+    </row>
+    <row r="21" spans="1:6" ht="22" customHeight="1" thickBot="1">
+      <c r="A21" s="22"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="33"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="C23:E23"/>
+  <mergeCells count="10">
+    <mergeCell ref="C21:E21"/>
     <mergeCell ref="E11:F19"/>
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="A5:D19"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="C22:E22"/>
     <mergeCell ref="A20:B21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="C20:E20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/test/org/hy/common/report/junit/versionCompare/JU_Report01.xlsx
+++ b/test/org/hy/common/report/junit/versionCompare/JU_Report01.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
@@ -208,7 +208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>名称：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,21 +247,6 @@
   </si>
   <si>
     <t>:date.fullMilli</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>这里是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="24"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>标题</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -308,7 +293,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -321,12 +306,6 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="24"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1279,7 +1258,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1292,7 +1271,7 @@
       <c r="A1" s="18"/>
       <c r="B1" s="19"/>
       <c r="C1" s="18" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D1" s="24"/>
       <c r="E1" s="24"/>
@@ -1328,7 +1307,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
@@ -1337,7 +1316,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1468,11 +1447,11 @@
     </row>
     <row r="20" spans="1:6" ht="22" customHeight="1" thickBot="1">
       <c r="A20" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
@@ -1482,7 +1461,7 @@
       <c r="A21" s="22"/>
       <c r="B21" s="26"/>
       <c r="C21" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
